--- a/biology/Biologie cellulaire et moléculaire/Hubert_Chantrenne/Hubert_Chantrenne.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Hubert_Chantrenne/Hubert_Chantrenne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hubert Chantrenne (né le 19 septembre 1918 à Couvin et mort le 16 octobre 2007 à Auderghem[1],[2], [3]) est un scientifique belge, pionnier de la biologie moléculaire à l'Université libre de Bruxelles.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hubert Chantrenne (né le 19 septembre 1918 à Couvin et mort le 16 octobre 2007 à Auderghem ) est un scientifique belge, pionnier de la biologie moléculaire à l'Université libre de Bruxelles.
 Il a élucidé le rôle de messager joué par l'acide ribonucléique dans la biosynthèse des protéines dans les ribosomes, organelles du cytoplasme cellulaire.
 </t>
         </is>
@@ -512,10 +524,12 @@
           <t>Récompenses et honneurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1963, Hubert Chantrenne est récompensé par le prix Francqui pour ses recherches. Il reçoit en 1980 un Prix quinquennal du FNRS.
-Une salle de l'aéropole de Gosselies a été nommée en hommage à Hubert Chantrenne[4].
+Une salle de l'aéropole de Gosselies a été nommée en hommage à Hubert Chantrenne.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Chantrenne H, Devreux S., Effects of 8-azaguanine on the synthesis of protein and nucleic acids in Bacillus cereus, Nature. 1958 Jun 21;181(4625):1737-1738.
 Chantrenne h., The Biosynthesis of proteins, Pergamon Press, 1961, 220 p.
